--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,26 +1125,26 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>2.28</v>
+        <v>1.99</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1152,44 +1152,44 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:36</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.49</v>
+        <v>3.53</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.51</v>
+        <v>3.78</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:36</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.67</v>
+        <v>2.91</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.28</v>
+        <v>3.07</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:36</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-lyseng/hCUyuZLl/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-naesby/bkVXuF6r/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.99</v>
+        <v>5.03</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.02</v>
+        <v>4.11</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.53</v>
+        <v>4.33</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.78</v>
+        <v>4.14</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.91</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.07</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-naesby/bkVXuF6r/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-vsk-aarhus/nD24csxG/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VSK Aarhus</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
       <c r="J10" t="n">
-        <v>5.03</v>
+        <v>2.28</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4.11</v>
+        <v>2.02</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:36</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.33</v>
+        <v>3.49</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.14</v>
+        <v>3.51</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:36</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>2.67</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>3.28</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:36</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-vsk-aarhus/nD24csxG/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-lyseng/hCUyuZLl/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.44</v>
+        <v>2.78</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>4.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.69</v>
+        <v>3.29</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.57</v>
+        <v>4.09</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:01</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.46</v>
+        <v>2.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.44</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.88</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.29</v>
+        <v>4.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.09</v>
+        <v>4.57</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 17:01</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.16</v>
+        <v>5.46</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>5.44</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.58</v>
+        <v>3.01</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.12</v>
+        <v>3.5</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.56</v>
+        <v>1.88</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.52</v>
+        <v>2.13</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.01</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>4.22</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.13</v>
+        <v>5.11</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.09</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.26</v>
+        <v>3.79</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>4.72</v>
+        <v>3.57</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.47</v>
+        <v>2.8</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-avarta/vNBvGnlC/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>5.24</v>
+        <v>1.48</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.71</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.34</v>
+        <v>4.09</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>1.43</v>
+        <v>4.72</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>1.72</v>
+        <v>5.47</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-avarta/vNBvGnlC/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>3.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>3.74</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.33</v>
+        <v>1.39</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.88</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:06</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.59</v>
+        <v>4.62</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>4.83</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>5.4</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.16</v>
+        <v>5.57</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 11:06</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.62</v>
+        <v>3.55</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.83</v>
+        <v>3.68</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.4</v>
+        <v>3.74</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.57</v>
+        <v>3.74</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
         <v>1</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Holbaek</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
       <c r="J48" t="n">
-        <v>1.59</v>
+        <v>3.19</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.58</v>
+        <v>3.67</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 12:55</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.8</v>
+        <v>3.44</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 12:55</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.85</v>
+        <v>1.86</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 12:55</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-holbaek/vw02VRma/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-vanlose/ITb6Uo35/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>3.19</v>
+        <v>1.59</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.67</v>
+        <v>1.58</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 12:55</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.44</v>
+        <v>3.8</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.64</v>
+        <v>4.05</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 12:55</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>1.86</v>
+        <v>4.85</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 12:55</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-vanlose/ITb6Uo35/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-holbaek/vw02VRma/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,282 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-ishoj-if/Cl7YXK9c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:38</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:38</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:38</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-avarta/6m0sWbvA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:41</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-young-boys-fd/v1bkUx9M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vanlose/dxgfTdOS/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.88</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.29</v>
+        <v>4.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.09</v>
+        <v>4.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 17:01</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.16</v>
+        <v>5.46</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>5.44</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>2.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>4.88</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.69</v>
+        <v>3.29</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.57</v>
+        <v>4.09</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:01</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.46</v>
+        <v>2.16</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.44</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.01</v>
+        <v>1.58</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.52</v>
+        <v>4.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.88</v>
+        <v>4.56</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.13</v>
+        <v>4.52</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Holbaek</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
       <c r="J35" t="n">
-        <v>1.49</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>3.01</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.22</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.32</v>
+        <v>3.52</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.55</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.11</v>
+        <v>2.13</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.12</v>
+        <v>4.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.35</v>
+        <v>4.32</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.52</v>
+        <v>5.11</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.33</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>3.74</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.39</v>
+        <v>3.33</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>2.88</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 11:06</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.62</v>
+        <v>3.59</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.57</v>
+        <v>2.16</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>23/09/2023 11:06</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>3.74</v>
+        <v>5.57</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
         </is>
       </c>
     </row>
@@ -5790,6 +5790,190 @@
       <c r="V58" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vanlose/dxgfTdOS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Holstebro</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>SfB-Oure</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:46</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:46</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>07/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:45</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-sfb-oure/bouMOGWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-holbaek/0AaoVIgG/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,98 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45212.79166666666</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:35</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:35</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>12/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:35</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-vejgaard/h8vQNznj/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>3.41</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 11:05</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.41</v>
+        <v>2.33</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 11:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>4.77</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 03:13</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 12:41</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.4</v>
+        <v>4.34</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 03:13</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.51</v>
+        <v>4.43</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 11:04</t>
+          <t>02/09/2023 12:41</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.81</v>
+        <v>1.51</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 03:13</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 12:11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-ishoj-if/ANet7i5s/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-young-boys-fd/Y14EBXdQ/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4.77</v>
+        <v>2.1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>02/09/2023 03:13</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>02/09/2023 12:41</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.34</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>02/09/2023 03:13</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.43</v>
+        <v>3.51</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 12:41</t>
+          <t>02/09/2023 11:04</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>1.51</v>
+        <v>2.81</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>02/09/2023 03:13</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>02/09/2023 12:11</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-young-boys-fd/Y14EBXdQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-ishoj-if/ANet7i5s/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.58</v>
+        <v>3.01</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.12</v>
+        <v>3.5</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.56</v>
+        <v>1.88</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.52</v>
+        <v>2.13</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.01</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.5</v>
+        <v>4.22</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.13</v>
+        <v>5.11</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>5.24</v>
+        <v>1.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.71</v>
+        <v>2.15</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.34</v>
+        <v>3.66</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.23</v>
+        <v>3.79</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.43</v>
+        <v>3.57</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>3.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>3.74</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.33</v>
+        <v>1.39</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.88</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:06</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.59</v>
+        <v>4.62</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>4.83</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>5.4</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.16</v>
+        <v>5.57</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.72</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 11:06</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.62</v>
+        <v>3.55</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.83</v>
+        <v>3.68</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.4</v>
+        <v>3.74</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.57</v>
+        <v>3.74</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,374 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-vejgaard/h8vQNznj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45213.54166666666</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-naesby/6BrUMf1d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45213.5625</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>VSK Aarhus</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Holstebro</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:33</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>13/10/2023 10:58</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vsk-aarhus-holstebro/8GMCovvc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>SfB-Oure</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.41</v>
+        <v>2.33</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 11:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.33</v>
+        <v>3.41</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19/08/2023 11:05</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Naesby</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>4.12</v>
+        <v>2.21</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.55</v>
+        <v>2.27</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.88</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.21</v>
+        <v>4.12</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.88</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.12</v>
+        <v>4.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.35</v>
+        <v>4.32</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.52</v>
+        <v>5.11</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 12:32</t>
+          <t>16/09/2023 12:51</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.96</v>
+        <v>3.47</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 12:51</t>
+          <t>16/09/2023 12:32</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>5.24</v>
+        <v>1.74</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.71</v>
+        <v>2.15</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.34</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.23</v>
+        <v>3.79</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.43</v>
+        <v>3.57</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.72</v>
+        <v>2.8</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.33</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>3.74</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>3.33</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>3.74</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,98 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45214.54166666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:33</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>15/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>14/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:33</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-lyseng/KYYNrxOF/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>3.41</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 11:05</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.41</v>
+        <v>2.33</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 11:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.12</v>
+        <v>4.22</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.35</v>
+        <v>4.32</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.56</v>
+        <v>4.55</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.52</v>
+        <v>5.11</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.96</v>
+        <v>3.47</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 12:51</t>
+          <t>16/09/2023 12:32</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 12:32</t>
+          <t>16/09/2023 12:51</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>5.24</v>
+        <v>1.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.71</v>
+        <v>2.15</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.34</v>
+        <v>3.66</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.23</v>
+        <v>3.79</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.43</v>
+        <v>3.57</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>3.33</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>3.74</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.33</v>
+        <v>1.72</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>3.74</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.12</v>
+        <v>3.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.09</v>
+        <v>3.57</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.39</v>
+        <v>3.68</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.41</v>
+        <v>3.91</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.77</v>
+        <v>1.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.19</v>
+        <v>1.82</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.57</v>
+        <v>2.09</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.68</v>
+        <v>3.39</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.91</v>
+        <v>3.41</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.72</v>
+        <v>2.77</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.82</v>
+        <v>3.19</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,466 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-lyseng/KYYNrxOF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:49</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:45</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>SfB-Oure</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:02</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Holstebro</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:47</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-avarta/M1egbHN2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>VSK Aarhus</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vsk-aarhus/U787zEVe/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.41</v>
+        <v>2.33</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 11:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.33</v>
+        <v>3.41</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19/08/2023 11:05</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.21</v>
+        <v>4.12</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.88</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Naesby</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
       <c r="J24" t="n">
-        <v>4.12</v>
+        <v>2.21</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.55</v>
+        <v>2.27</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.88</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3.01</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.5</v>
+        <v>4.22</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.13</v>
+        <v>5.11</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.58</v>
+        <v>3.01</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.12</v>
+        <v>3.5</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.56</v>
+        <v>1.88</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.52</v>
+        <v>2.13</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>3.33</v>
+        <v>1.72</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.85</v>
+        <v>3.74</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.72</v>
+        <v>3.33</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="P46" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:48</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R46" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T46" t="n">
-        <v>3.74</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.66</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:49</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.75</v>
+        <v>3.78</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.74</v>
+        <v>4.04</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:02</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.66</v>
+        <v>3.31</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.78</v>
+        <v>2.75</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.04</v>
+        <v>2.74</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:02</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,98 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vsk-aarhus/U787zEVe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>4</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:13</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-young-boys-fd/G0SWtGhS/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.72</v>
+        <v>2.32</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.85</v>
+        <v>2.32</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>05/08/2023 13:54</t>
+          <t>05/08/2023 11:42</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.98</v>
+        <v>3.36</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>4.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>05/08/2023 13:54</t>
+          <t>05/08/2023 12:04</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.71</v>
+        <v>2.68</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>05/08/2023 13:54</t>
+          <t>05/08/2023 11:42</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-holbaek/4lDabNM9/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-bk-frem/QcEea373/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.32</v>
+        <v>1.72</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,48 +1056,48 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.32</v>
+        <v>1.85</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>05/08/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>05/08/2023 11:42</t>
         </is>
       </c>
-      <c r="N7" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>05/08/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>05/08/2023 11:42</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>05/08/2023 12:04</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>05/08/2023 11:42</t>
-        </is>
-      </c>
       <c r="T7" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>05/08/2023 11:42</t>
+          <t>05/08/2023 13:54</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-bk-frem/QcEea373/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-holbaek/4lDabNM9/</t>
         </is>
       </c>
     </row>
@@ -1125,26 +1125,26 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.99</v>
+        <v>2.28</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -1152,44 +1152,44 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:36</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.53</v>
+        <v>3.49</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.78</v>
+        <v>3.51</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:36</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.91</v>
+        <v>2.67</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.07</v>
+        <v>3.28</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:36</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-naesby/bkVXuF6r/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-lyseng/hCUyuZLl/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>VSK Aarhus</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>5.03</v>
+        <v>1.99</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.11</v>
+        <v>2.02</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.33</v>
+        <v>3.53</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.14</v>
+        <v>3.78</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.49</v>
+        <v>2.91</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>3.07</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-vsk-aarhus/nD24csxG/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-naesby/bkVXuF6r/</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.28</v>
+        <v>5.03</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.02</v>
+        <v>4.11</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:36</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.49</v>
+        <v>4.33</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.51</v>
+        <v>4.14</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:36</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.67</v>
+        <v>1.49</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.28</v>
+        <v>1.67</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:36</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-lyseng/hCUyuZLl/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-vsk-aarhus/nD24csxG/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>3.41</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 11:05</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.41</v>
+        <v>2.33</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 11:05</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.77</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>02/09/2023 03:13</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>02/09/2023 12:41</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.34</v>
+        <v>3.4</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>02/09/2023 03:13</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.43</v>
+        <v>3.51</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>02/09/2023 12:41</t>
+          <t>02/09/2023 11:04</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>1.51</v>
+        <v>2.81</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>02/09/2023 03:13</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>02/09/2023 12:11</t>
+          <t>01/09/2023 01:12</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-young-boys-fd/Y14EBXdQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-ishoj-if/ANet7i5s/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.1</v>
+        <v>4.77</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 03:13</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.1</v>
+        <v>3.8</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 12:41</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>4.34</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 03:13</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.51</v>
+        <v>4.43</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>02/09/2023 11:04</t>
+          <t>02/09/2023 12:41</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.81</v>
+        <v>1.51</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 03:13</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>01/09/2023 01:12</t>
+          <t>02/09/2023 12:11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-ishoj-if/ANet7i5s/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-young-boys-fd/Y14EBXdQ/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.22</v>
+        <v>4.12</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.32</v>
+        <v>4.35</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>5.11</v>
+        <v>4.52</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.58</v>
+        <v>3.01</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4.12</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.56</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.52</v>
+        <v>2.13</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>09/09/2023 12:58</t>
+          <t>09/09/2023 12:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-sfb-oure/n96KKAZt/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>1.49</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>3.01</v>
+        <v>1.52</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.5</v>
+        <v>4.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.52</v>
+        <v>4.32</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>1.88</v>
+        <v>4.55</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.13</v>
+        <v>5.11</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>09/09/2023 12:57</t>
+          <t>09/09/2023 12:58</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vanlose/SOPmQWBJ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holbaek/6FOiPjRP/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 12:32</t>
+          <t>16/09/2023 12:51</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.96</v>
+        <v>3.47</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 12:51</t>
+          <t>16/09/2023 12:32</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.39</v>
+        <v>3.33</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.43</v>
+        <v>2.88</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 11:06</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.62</v>
+        <v>3.59</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>4.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>5.57</v>
+        <v>2.16</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.33</v>
+        <v>1.39</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.88</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:06</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.59</v>
+        <v>4.62</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.62</v>
+        <v>4.83</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>5.4</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.16</v>
+        <v>5.57</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>3.57</v>
+        <v>2.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.68</v>
+        <v>3.39</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.91</v>
+        <v>3.41</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.72</v>
+        <v>2.77</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.82</v>
+        <v>3.19</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.12</v>
+        <v>3.62</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.09</v>
+        <v>3.57</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.39</v>
+        <v>3.68</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.41</v>
+        <v>3.91</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.77</v>
+        <v>1.72</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.19</v>
+        <v>1.82</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.61</v>
+        <v>3.95</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.78</v>
+        <v>3.38</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.04</v>
+        <v>3.3</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:02</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.88</v>
+        <v>2.37</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.75</v>
+        <v>3.31</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:49</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.17</v>
+        <v>1.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.37</v>
+        <v>1.78</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.31</v>
+        <v>3.66</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.31</v>
+        <v>3.61</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:49</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.75</v>
+        <v>3.78</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.74</v>
+        <v>4.04</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:02</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,558 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-young-boys-fd/G0SWtGhS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:31</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:31</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:31</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-ishoj-if/Yyaccyw9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Holstebro</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:41</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holstebro/G0l2dehF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45227.5625</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>VSK Aarhus</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:10</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:10</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vsk-aarhus-lyseng/fim6eF7L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>SfB-Oure</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:30</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:30</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:30</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-vanlose/8bTtkDpk/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.95</v>
+        <v>3.61</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.38</v>
+        <v>3.78</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.3</v>
+        <v>4.04</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:02</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.17</v>
+        <v>1.76</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.37</v>
+        <v>1.88</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:49</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.75</v>
+        <v>3.38</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.66</v>
+        <v>3.31</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.78</v>
+        <v>2.75</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.04</v>
+        <v>2.74</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:02</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>2.94</v>
+        <v>1.37</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.12</v>
+        <v>1.47</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/10/2023 18:31</t>
+          <t>27/10/2023 18:41</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.43</v>
+        <v>4.49</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.43</v>
+        <v>4.62</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/10/2023 18:31</t>
+          <t>27/10/2023 18:41</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.01</v>
+        <v>5.89</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.12</v>
+        <v>5.33</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/10/2023 18:31</t>
+          <t>27/10/2023 18:41</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-ishoj-if/Yyaccyw9/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holstebro/G0l2dehF/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>1.37</v>
+        <v>2.94</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.47</v>
+        <v>3.12</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/10/2023 18:41</t>
+          <t>27/10/2023 18:31</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.49</v>
+        <v>3.43</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>4.62</v>
+        <v>3.43</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/10/2023 18:41</t>
+          <t>27/10/2023 18:31</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>5.89</v>
+        <v>2.01</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.33</v>
+        <v>2.12</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/10/2023 18:41</t>
+          <t>27/10/2023 18:31</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holstebro/G0l2dehF/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-ishoj-if/Yyaccyw9/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,98 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-vanlose/8bTtkDpk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>02/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>02/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:01</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>02/11/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-avarta/M1XplXae/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.41</v>
+        <v>2.33</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 11:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>2.66</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 12:25</t>
+          <t>19/08/2023 12:29</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.68</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.33</v>
+        <v>3.41</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.48</v>
+        <v>3.43</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>19/08/2023 11:05</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.66</v>
+        <v>1.87</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>19/08/2023 12:29</t>
+          <t>19/08/2023 12:25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-ishoj-if/QyuybESQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-bk-frem/notXbfDK/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>VSK Aarhus</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>4.16</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.45</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 12:50</t>
+          <t>26/08/2023 12:46</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.8</v>
+        <v>3.71</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.97</v>
+        <v>4.42</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 12:50</t>
+          <t>26/08/2023 12:46</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>3.55</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>4.76</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 12:50</t>
+          <t>26/08/2023 12:46</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vsk-aarhus/jJOFjWK0/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holstebro/ptOJkjz7/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.73</v>
+        <v>4.16</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.54</v>
+        <v>4.45</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 12:46</t>
+          <t>26/08/2023 12:50</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>4.42</v>
+        <v>3.97</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 12:46</t>
+          <t>26/08/2023 12:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.55</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.76</v>
+        <v>1.64</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 12:46</t>
+          <t>26/08/2023 12:50</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holstebro/ptOJkjz7/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vsk-aarhus/jJOFjWK0/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.96</v>
+        <v>3.47</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 12:51</t>
+          <t>16/09/2023 12:32</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 12:32</t>
+          <t>16/09/2023 12:51</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>5.24</v>
+        <v>1.74</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.71</v>
+        <v>2.15</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.34</v>
+        <v>3.66</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.23</v>
+        <v>3.79</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.43</v>
+        <v>3.57</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.72</v>
+        <v>2.8</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>2.59</v>
+        <v>3.03</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.49</v>
+        <v>3.35</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:47</t>
+          <t>21/10/2023 13:50</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:47</t>
+          <t>21/10/2023 13:50</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.59</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:47</t>
+          <t>21/10/2023 13:50</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-avarta/M1egbHN2/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vsk-aarhus/U787zEVe/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>VSK Aarhus</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>3.03</v>
+        <v>2.59</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>3.35</v>
+        <v>2.49</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 13:50</t>
+          <t>21/10/2023 13:47</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 13:50</t>
+          <t>21/10/2023 13:47</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.06</v>
+        <v>2.59</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 13:50</t>
+          <t>21/10/2023 13:47</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vsk-aarhus/U787zEVe/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-avarta/M1egbHN2/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>1.37</v>
+        <v>2.94</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.47</v>
+        <v>3.12</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>27/10/2023 18:41</t>
+          <t>27/10/2023 18:31</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>4.49</v>
+        <v>3.43</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>4.62</v>
+        <v>3.43</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>27/10/2023 18:41</t>
+          <t>27/10/2023 18:31</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>5.89</v>
+        <v>2.01</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.33</v>
+        <v>2.12</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>27/10/2023 18:41</t>
+          <t>27/10/2023 18:31</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holstebro/G0l2dehF/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-ishoj-if/Yyaccyw9/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>2.94</v>
+        <v>1.37</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.12</v>
+        <v>1.47</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>27/10/2023 18:31</t>
+          <t>27/10/2023 18:41</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.43</v>
+        <v>4.49</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.43</v>
+        <v>4.62</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>27/10/2023 18:31</t>
+          <t>27/10/2023 18:41</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.01</v>
+        <v>5.89</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.12</v>
+        <v>5.33</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>27/10/2023 18:31</t>
+          <t>27/10/2023 18:41</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-ishoj-if/Yyaccyw9/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holstebro/G0l2dehF/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,374 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-avarta/M1XplXae/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:35</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:35</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:35</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-naesby/GOWlmiF1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SfB-Oure</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-sfb-oure/YczY9EME/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-young-boys-fd/f7yUAf78/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Holstebro</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:30</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:01</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:30</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-bk-frem/SKZy9YyL/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.44</v>
+        <v>2.78</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>4.88</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>4.69</v>
+        <v>3.29</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.57</v>
+        <v>4.09</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 17:01</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>5.46</v>
+        <v>2.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>5.44</v>
+        <v>1.57</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4.88</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.29</v>
+        <v>4.69</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.09</v>
+        <v>4.57</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 17:01</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.16</v>
+        <v>5.46</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>5.44</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,98 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-bk-frem/SKZy9YyL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>VSK Aarhus</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:49</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-vsk-aarhus/fFVhnBU7/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.78</v>
+        <v>1.44</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4.88</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.29</v>
+        <v>4.69</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.09</v>
+        <v>4.57</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 17:01</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.16</v>
+        <v>5.46</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>17/08/2023 07:12</t>
+          <t>17/08/2023 21:52</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.57</v>
+        <v>5.44</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>18/08/2023 18:44</t>
+          <t>18/08/2023 16:21</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>2.78</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>4.88</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.69</v>
+        <v>3.29</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.57</v>
+        <v>4.09</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>18/08/2023 17:01</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>5.46</v>
+        <v>2.16</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>17/08/2023 21:52</t>
+          <t>17/08/2023 07:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.44</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>18/08/2023 16:21</t>
+          <t>18/08/2023 18:44</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-holbaek/4MjSazbE/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-young-boys-fd/jJnO0Gr8/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>4.16</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.54</v>
+        <v>4.45</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>26/08/2023 12:46</t>
+          <t>26/08/2023 12:50</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.71</v>
+        <v>3.8</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.42</v>
+        <v>3.97</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>26/08/2023 12:46</t>
+          <t>26/08/2023 12:50</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.55</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>4.76</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>26/08/2023 12:46</t>
+          <t>26/08/2023 12:50</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holstebro/ptOJkjz7/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vsk-aarhus/jJOFjWK0/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>VSK Aarhus</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>4.16</v>
+        <v>1.73</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.45</v>
+        <v>1.54</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/08/2023 12:50</t>
+          <t>26/08/2023 12:46</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.8</v>
+        <v>3.71</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.97</v>
+        <v>4.42</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/08/2023 12:50</t>
+          <t>26/08/2023 12:46</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>3.55</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.64</v>
+        <v>4.76</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/08/2023 12:50</t>
+          <t>26/08/2023 12:46</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-vsk-aarhus/jJOFjWK0/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-holstebro/ptOJkjz7/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Naesby</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
       <c r="J23" t="n">
-        <v>4.12</v>
+        <v>2.21</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.55</v>
+        <v>2.27</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.88</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.21</v>
+        <v>4.12</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.4</v>
+        <v>3.88</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>4.09</v>
+        <v>3.66</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4.26</v>
+        <v>3.79</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>4.72</v>
+        <v>3.57</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>5.47</v>
+        <v>2.8</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-avarta/vNBvGnlC/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>5.24</v>
+        <v>1.48</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.71</v>
+        <v>1.5</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.34</v>
+        <v>4.09</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.43</v>
+        <v>4.72</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.72</v>
+        <v>5.47</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-avarta/vNBvGnlC/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>1.69</v>
+        <v>2.17</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.66</v>
+        <v>3.31</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.61</v>
+        <v>3.31</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.78</v>
+        <v>2.75</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>4.04</v>
+        <v>2.74</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:02</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.95</v>
+        <v>3.61</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.38</v>
+        <v>3.78</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.3</v>
+        <v>4.04</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:02</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.17</v>
+        <v>1.76</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.37</v>
+        <v>1.88</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:49</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.75</v>
+        <v>3.38</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>3.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.92</v>
+        <v>3.57</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.49</v>
+        <v>1.9</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.59</v>
+        <v>2.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.92</v>
+        <v>1.63</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.57</v>
+        <v>3.92</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.9</v>
+        <v>3.49</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.16</v>
+        <v>4.59</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,374 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-vsk-aarhus/fFVhnBU7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>VSK Aarhus</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:29</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vsk-aarhus-vanlose/tOwt8hiR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:43</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-lyseng/n5G83Car/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:45</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-ishoj-if/YLIK0Aq1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holbaek/QeFC2WEl/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.12</v>
+        <v>3.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.09</v>
+        <v>3.57</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.39</v>
+        <v>3.68</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.41</v>
+        <v>3.91</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.77</v>
+        <v>1.72</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.19</v>
+        <v>1.82</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:55</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>3.57</v>
+        <v>2.09</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.68</v>
+        <v>3.39</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.91</v>
+        <v>3.41</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.72</v>
+        <v>2.77</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.82</v>
+        <v>3.19</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>14/10/2023 13:55</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vanlose/n7LGpbg3/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-ishoj-if/trzKqI89/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.61</v>
+        <v>3.95</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:44</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.78</v>
+        <v>3.38</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.04</v>
+        <v>3.3</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:02</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.75</v>
+        <v>3.66</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.95</v>
+        <v>3.61</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:44</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.38</v>
+        <v>3.78</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.3</v>
+        <v>4.04</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:02</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-holbaek/CWD2yfGk/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>VSK Aarhus</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>3.03</v>
+        <v>2.59</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>3.35</v>
+        <v>2.49</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:50</t>
+          <t>21/10/2023 13:47</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.35</v>
+        <v>3.19</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:50</t>
+          <t>21/10/2023 13:47</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>2.39</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>2.59</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>21/10/2023 13:50</t>
+          <t>21/10/2023 13:47</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vsk-aarhus/U787zEVe/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-avarta/M1egbHN2/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>2.59</v>
+        <v>3.03</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.49</v>
+        <v>3.35</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>21/10/2023 13:47</t>
+          <t>21/10/2023 13:50</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>21/10/2023 13:47</t>
+          <t>21/10/2023 13:50</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.39</v>
+        <v>2</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.59</v>
+        <v>2.06</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>21/10/2023 13:47</t>
+          <t>21/10/2023 13:50</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-avarta/M1egbHN2/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-vsk-aarhus/U787zEVe/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.92</v>
+        <v>1.63</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.57</v>
+        <v>3.92</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.9</v>
+        <v>3.49</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.16</v>
+        <v>4.59</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>1.78</v>
+        <v>3.11</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.92</v>
+        <v>3.57</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.49</v>
+        <v>1.9</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>4.59</v>
+        <v>2.16</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>04/11/2023 12:35</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>04/11/2023 12:35</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>04/11/2023 12:35</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-naesby/GOWlmiF1/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-young-boys-fd/f7yUAf78/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:35</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.47</v>
+        <v>3.2</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:35</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:35</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-young-boys-fd/f7yUAf78/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-naesby/GOWlmiF1/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,98 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holbaek/QeFC2WEl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:46</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:40</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-vejgaard/Gp8PaUb7/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_3rd-division_2023-2024.xlsx
+++ b/2023/denmark_3rd-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>VSK Aarhus</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.99</v>
+        <v>5.03</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.02</v>
+        <v>4.11</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.53</v>
+        <v>4.33</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.78</v>
+        <v>4.14</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.91</v>
+        <v>1.49</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>11/08/2023 01:12</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.07</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>12/08/2023 12:38</t>
+          <t>12/08/2023 12:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-naesby/bkVXuF6r/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-vsk-aarhus/nD24csxG/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>VSK Aarhus</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>5.03</v>
+        <v>1.99</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4.11</v>
+        <v>2.02</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.33</v>
+        <v>3.53</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.14</v>
+        <v>3.78</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.49</v>
+        <v>2.91</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>11/08/2023 01:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>3.07</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>12/08/2023 12:59</t>
+          <t>12/08/2023 12:38</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-vsk-aarhus/nD24csxG/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-naesby/bkVXuF6r/</t>
         </is>
       </c>
     </row>
@@ -2505,71 +2505,71 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.21</v>
+        <v>4.12</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.88</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.82</v>
+        <v>1.59</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26/08/2023 10:12</t>
+          <t>25/08/2023 02:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 13:46</t>
+          <t>26/08/2023 12:03</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Naesby</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
       <c r="J24" t="n">
-        <v>4.12</v>
+        <v>2.21</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.55</v>
+        <v>2.27</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.88</v>
+        <v>3.4</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.73</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.59</v>
+        <v>2.82</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>25/08/2023 02:12</t>
+          <t>26/08/2023 10:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 12:03</t>
+          <t>26/08/2023 13:46</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-naesby/OWMNlAkD/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-vejgaard/0l66DgSD/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.78</v>
+        <v>3.33</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.3</v>
+        <v>2.47</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 12:32</t>
+          <t>16/09/2023 12:51</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.43</v>
+        <v>1.85</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.22</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.33</v>
+        <v>3.78</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.47</v>
+        <v>3.3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.96</v>
+        <v>3.47</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 12:51</t>
+          <t>16/09/2023 12:32</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-holstebro/KM4SIl4g/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-vejgaard/I7NVH8Ja/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>5.24</v>
+        <v>1.48</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.71</v>
+        <v>1.5</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 12:05</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.34</v>
+        <v>4.09</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.23</v>
+        <v>4.26</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>1.43</v>
+        <v>4.72</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.72</v>
+        <v>5.47</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 13:57</t>
+          <t>16/09/2023 13:29</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-avarta/vNBvGnlC/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.74</v>
+        <v>5.24</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.15</v>
+        <v>3.71</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 12:05</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.66</v>
+        <v>4.34</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.79</v>
+        <v>4.23</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:50</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.57</v>
+        <v>1.43</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.8</v>
+        <v>1.72</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>16/09/2023 13:49</t>
+          <t>16/09/2023 13:57</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-bk-frem/8dGrF63I/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.09</v>
+        <v>3.66</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.26</v>
+        <v>3.79</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:50</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.72</v>
+        <v>3.57</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.47</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 13:29</t>
+          <t>16/09/2023 13:49</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-avarta/vNBvGnlC/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/naesby-lyseng/nmFnEQIO/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Ishoj</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Avarta</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.72</v>
+        <v>1.39</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,48 +4460,48 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>1.43</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>23/09/2023 11:06</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="P44" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>23/09/2023 12:21</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>22/09/2023 01:13</t>
         </is>
       </c>
-      <c r="P44" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>23/09/2023 11:04</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>22/09/2023 01:13</t>
-        </is>
-      </c>
       <c r="T44" t="n">
-        <v>3.74</v>
+        <v>5.57</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>22/09/2023 01:13</t>
+          <t>23/09/2023 12:21</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Avarta</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.33</v>
+        <v>1.72</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>3.68</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>23/09/2023 11:04</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>3.74</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.16</v>
+        <v>3.74</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>23/09/2023 12:48</t>
+          <t>22/09/2023 01:13</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-avarta/Kzp1XmJn/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ishoj</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.39</v>
+        <v>3.33</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>2.88</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>23/09/2023 11:06</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.62</v>
+        <v>3.59</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.83</v>
+        <v>3.62</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>5.57</v>
+        <v>2.16</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>23/09/2023 12:21</t>
+          <t>23/09/2023 12:48</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-sfb-oure/QDpcYT3t/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-young-boys-fd/lhgVxAeP/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Holstebro</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>3.19</v>
+        <v>1.59</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.67</v>
+        <v>1.58</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 12:55</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.44</v>
+        <v>3.8</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.64</v>
+        <v>4.05</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 12:55</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>1.9</v>
+        <v>4.2</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>1.86</v>
+        <v>4.85</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>23/09/2023 13:46</t>
+          <t>23/09/2023 12:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-vanlose/ITb6Uo35/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-holbaek/vw02VRma/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Holstebro</t>
         </is>
       </c>
       <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Holbaek</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
       <c r="J49" t="n">
-        <v>1.59</v>
+        <v>3.19</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.58</v>
+        <v>3.67</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>23/09/2023 12:55</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.8</v>
+        <v>3.44</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 12:55</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.85</v>
+        <v>1.86</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>23/09/2023 12:55</t>
+          <t>23/09/2023 13:46</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-holbaek/vw02VRma/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-vanlose/ITb6Uo35/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vanlose</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.17</v>
+        <v>1.76</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.37</v>
+        <v>1.88</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.31</v>
+        <v>3.75</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.31</v>
+        <v>3.95</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:49</t>
+          <t>21/10/2023 12:52</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.75</v>
+        <v>3.38</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>21/10/2023 12:45</t>
+          <t>21/10/2023 12:43</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vanlose</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="I68" t="n">
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1.76</v>
+        <v>2.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.88</v>
+        <v>2.37</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.75</v>
+        <v>3.31</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.95</v>
+        <v>3.31</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:52</t>
+          <t>21/10/2023 12:49</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>21/10/2023 12:43</t>
+          <t>21/10/2023 12:45</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-sfb-oure/2cOSsdwM/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-bk-frem/YuFbxz1q/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>SfB-Oure</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>3.11</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.63</v>
+        <v>2.92</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.92</v>
+        <v>3.57</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.49</v>
+        <v>1.9</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.59</v>
+        <v>2.16</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/10/2023 13:52</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SfB-Oure</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>3.11</v>
+        <v>1.78</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.92</v>
+        <v>1.63</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.57</v>
+        <v>3.92</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.9</v>
+        <v>3.49</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.16</v>
+        <v>4.59</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/sfb-oure-vejgaard/QZwxjgVr/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-naesby/OQiAfZMR/</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vejgaard</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -7757,14 +7757,14 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Naesby</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.26</v>
+        <v>2.41</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:35</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.47</v>
+        <v>3.2</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:35</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:35</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-young-boys-fd/f7yUAf78/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-naesby/GOWlmiF1/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Vejgaard</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Naesby</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.41</v>
+        <v>2.26</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>04/11/2023 12:35</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.2</v>
+        <v>3.47</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>04/11/2023 12:35</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>04/11/2023 12:35</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/lyseng-naesby/GOWlmiF1/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-young-boys-fd/f7yUAf78/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>BK Frem</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Lyseng</t>
+          <t>Holbaek</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>11/11/2023 13:43</t>
+          <t>11/11/2023 13:46</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.79</v>
+        <v>4.14</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.34</v>
+        <v>4.15</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>11/11/2023 13:50</t>
+          <t>11/11/2023 13:46</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.98</v>
+        <v>4.71</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.28</v>
+        <v>4.67</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>11/11/2023 13:50</t>
+          <t>11/11/2023 13:46</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-lyseng/n5G83Car/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holbaek/QeFC2WEl/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>BK Frem</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Holbaek</t>
+          <t>Lyseng</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>11/11/2023 13:46</t>
+          <t>11/11/2023 13:43</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.14</v>
+        <v>3.79</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.15</v>
+        <v>4.34</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>11/11/2023 13:46</t>
+          <t>11/11/2023 13:50</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>4.71</v>
+        <v>3.98</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>4.67</v>
+        <v>5.28</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>11/11/2023 13:46</t>
+          <t>11/11/2023 13:50</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/3rd-division/young-boys-fd-holbaek/QeFC2WEl/</t>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/bk-frem-lyseng/n5G83Car/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,558 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-vejgaard/Gp8PaUb7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Avarta</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Young Boys</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>17/11/2023 22:17</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>17/11/2023 22:17</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/avarta-young-boys-fd/EVQSblED/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Holbaek</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>SfB-Oure</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:49</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:33</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:49</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holbaek-sfb-oure/SYEANXjE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Holstebro</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>VSK Aarhus</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/holstebro-vsk-aarhus/fmVj335a/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Ishoj</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>4</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Lyseng</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/ishoj-if-lyseng/4bxv65Lt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Vanlose</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Naesby</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:05</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:30</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vanlose-naesby/0QVn4qjg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3rd-division</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Vejgaard</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>BK Frem</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>17/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/3rd-division/vejgaard-bk-frem/MZWr5Pzm/</t>
         </is>
       </c>
     </row>
